--- a/doc/20200707_scRNAseq_info.xlsx
+++ b/doc/20200707_scRNAseq_info.xlsx
@@ -1,22 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yah2014/Dropbox/Public/Olivier/Projects/scRNAseq-BladderCancer/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yah2014/Dropbox/Public/Olivier/Projects/scRNAseq-BladderCancerImmune/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0677BF7C-55EE-DA48-B8DF-06B26001107E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8527647C-8DAB-8E4C-BDF6-07D7550902E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30580" yWindow="2580" windowWidth="36520" windowHeight="19760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37420" yWindow="460" windowWidth="22280" windowHeight="19680" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Single cell 5'DE RNAseq" sheetId="2" r:id="rId1"/>
+    <sheet name="Comparison" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t>date</t>
   </si>
@@ -244,13 +253,49 @@
   </si>
   <si>
     <t>LN</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>This analysis</t>
+  </si>
+  <si>
+    <t>Yu paper</t>
+  </si>
+  <si>
+    <t>Cell number</t>
+  </si>
+  <si>
+    <t>Human CD45+: 10</t>
+  </si>
+  <si>
+    <t>Human Normal:          1</t>
+  </si>
+  <si>
+    <t>Human Blood CD45+: 6</t>
+  </si>
+  <si>
+    <t>Human BT:                11</t>
+  </si>
+  <si>
+    <t>Human LN:                  1</t>
+  </si>
+  <si>
+    <t>Human CD45-:   4</t>
+  </si>
+  <si>
+    <t>Mouse CD45+:   3</t>
+  </si>
+  <si>
+    <t>Mouse CD45-:    4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,6 +337,18 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -461,7 +518,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -472,6 +529,14 @@
     </xf>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -959,30 +1024,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="37.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="19.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
-    <col min="10" max="12" width="10.83203125" style="1"/>
-    <col min="13" max="13" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="20" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1017,16 +1083,16 @@
         <v>27</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1061,16 +1127,16 @@
         <v>28</v>
       </c>
       <c r="L2" s="7">
+        <v>6746</v>
+      </c>
+      <c r="M2" s="7">
         <v>38320</v>
-      </c>
-      <c r="M2" s="7">
-        <v>6746</v>
       </c>
       <c r="N2" s="7">
         <v>1779</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1105,16 +1171,16 @@
         <v>28</v>
       </c>
       <c r="L3" s="7">
+        <v>844</v>
+      </c>
+      <c r="M3" s="7">
         <v>364447</v>
-      </c>
-      <c r="M3" s="7">
-        <v>844</v>
       </c>
       <c r="N3" s="7">
         <v>1551</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1149,16 +1215,16 @@
         <v>28</v>
       </c>
       <c r="L4" s="7">
+        <v>1483</v>
+      </c>
+      <c r="M4" s="7">
         <v>182148</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1483</v>
       </c>
       <c r="N4" s="7">
         <v>1540</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1193,16 +1259,16 @@
         <v>28</v>
       </c>
       <c r="L5" s="7">
+        <v>881</v>
+      </c>
+      <c r="M5" s="7">
         <v>320824</v>
-      </c>
-      <c r="M5" s="7">
-        <v>881</v>
       </c>
       <c r="N5" s="7">
         <v>1781</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1237,16 +1303,16 @@
         <v>28</v>
       </c>
       <c r="L6" s="7">
+        <v>357</v>
+      </c>
+      <c r="M6" s="7">
         <v>802163</v>
-      </c>
-      <c r="M6" s="7">
-        <v>357</v>
       </c>
       <c r="N6" s="7">
         <v>853</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1281,16 +1347,16 @@
         <v>28</v>
       </c>
       <c r="L7" s="7">
+        <v>547</v>
+      </c>
+      <c r="M7" s="7">
         <v>513414</v>
-      </c>
-      <c r="M7" s="7">
-        <v>547</v>
       </c>
       <c r="N7" s="7">
         <v>291</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1325,16 +1391,16 @@
         <v>28</v>
       </c>
       <c r="L8" s="7">
+        <v>2151</v>
+      </c>
+      <c r="M8" s="7">
         <v>124446</v>
-      </c>
-      <c r="M8" s="7">
-        <v>2151</v>
       </c>
       <c r="N8" s="7">
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1369,16 +1435,16 @@
         <v>28</v>
       </c>
       <c r="L9" s="7">
+        <v>9615</v>
+      </c>
+      <c r="M9" s="7">
         <v>37125</v>
-      </c>
-      <c r="M9" s="7">
-        <v>9615</v>
       </c>
       <c r="N9" s="7">
         <v>1297</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1413,16 +1479,16 @@
         <v>28</v>
       </c>
       <c r="L10" s="7">
+        <v>1460</v>
+      </c>
+      <c r="M10" s="7">
         <v>388956</v>
-      </c>
-      <c r="M10" s="7">
-        <v>1460</v>
       </c>
       <c r="N10" s="7">
         <v>2034</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1457,16 +1523,16 @@
         <v>28</v>
       </c>
       <c r="L11" s="7">
+        <v>2207</v>
+      </c>
+      <c r="M11" s="7">
         <v>118827</v>
-      </c>
-      <c r="M11" s="7">
-        <v>2207</v>
       </c>
       <c r="N11" s="7">
         <v>792</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1501,16 +1567,16 @@
         <v>28</v>
       </c>
       <c r="L12" s="7">
+        <v>3558</v>
+      </c>
+      <c r="M12" s="7">
         <v>75243</v>
-      </c>
-      <c r="M12" s="7">
-        <v>3558</v>
       </c>
       <c r="N12" s="7">
         <v>1989</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1545,16 +1611,16 @@
         <v>28</v>
       </c>
       <c r="L13" s="7">
+        <v>1150</v>
+      </c>
+      <c r="M13" s="7">
         <v>216114</v>
-      </c>
-      <c r="M13" s="7">
-        <v>1150</v>
       </c>
       <c r="N13" s="7">
         <v>2074</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1589,16 +1655,16 @@
         <v>28</v>
       </c>
       <c r="L14" s="7">
+        <v>1813</v>
+      </c>
+      <c r="M14" s="7">
         <v>161029</v>
-      </c>
-      <c r="M14" s="7">
-        <v>1813</v>
       </c>
       <c r="N14" s="7">
         <v>1826</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1633,16 +1699,16 @@
         <v>28</v>
       </c>
       <c r="L15" s="7">
+        <v>5684</v>
+      </c>
+      <c r="M15" s="7">
         <v>41370</v>
-      </c>
-      <c r="M15" s="7">
-        <v>5684</v>
       </c>
       <c r="N15" s="7">
         <v>342</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1677,16 +1743,16 @@
         <v>36</v>
       </c>
       <c r="L16" s="7">
+        <v>1672</v>
+      </c>
+      <c r="M16" s="7">
         <v>181106</v>
-      </c>
-      <c r="M16" s="7">
-        <v>1672</v>
       </c>
       <c r="N16" s="7">
         <v>2486</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1721,16 +1787,16 @@
         <v>36</v>
       </c>
       <c r="L17" s="7">
+        <v>2094</v>
+      </c>
+      <c r="M17" s="7">
         <v>159455</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2094</v>
       </c>
       <c r="N17" s="7">
         <v>1336</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1765,16 +1831,16 @@
         <v>36</v>
       </c>
       <c r="L18" s="7">
+        <v>6268</v>
+      </c>
+      <c r="M18" s="7">
         <v>50740</v>
-      </c>
-      <c r="M18" s="7">
-        <v>6268</v>
       </c>
       <c r="N18" s="7">
         <v>1388</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1809,16 +1875,16 @@
         <v>36</v>
       </c>
       <c r="L19" s="7">
+        <v>3686</v>
+      </c>
+      <c r="M19" s="7">
         <v>95970</v>
-      </c>
-      <c r="M19" s="7">
-        <v>3686</v>
       </c>
       <c r="N19" s="7">
         <v>968</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1853,13 +1919,22 @@
         <v>36</v>
       </c>
       <c r="L20" s="7">
+        <v>630</v>
+      </c>
+      <c r="M20" s="7">
         <v>531993</v>
-      </c>
-      <c r="M20" s="7">
-        <v>630</v>
       </c>
       <c r="N20" s="7">
         <v>2030</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="C21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L21" s="7">
+        <f>SUM(L2:L20)</f>
+        <v>52846</v>
       </c>
     </row>
   </sheetData>
@@ -1872,4 +1947,193 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361037A4-8092-9141-9C7A-8BB3B8939C9D}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="A1:C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10">
+        <v>21</v>
+      </c>
+      <c r="D2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="18">
+      <c r="A3" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="10">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9"/>
+    </row>
+    <row r="4" spans="1:4" ht="18">
+      <c r="A4" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="10">
+        <v>4</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" ht="18">
+      <c r="A5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9"/>
+    </row>
+    <row r="6" spans="1:4" ht="18">
+      <c r="A6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="10">
+        <v>52846</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="18">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="18">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="18">
+      <c r="A9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="18">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="18">
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" ht="18">
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>
--- a/doc/20200707_scRNAseq_info.xlsx
+++ b/doc/20200707_scRNAseq_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yah2014/Dropbox/Public/Olivier/Projects/scRNAseq-BladderCancerImmune/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8527647C-8DAB-8E4C-BDF6-07D7550902E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC62A93-7B5D-9043-989D-45A9E803BD84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37420" yWindow="460" windowWidth="22280" windowHeight="19680" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33280" yWindow="4240" windowWidth="22280" windowHeight="16760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Single cell 5'DE RNAseq" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="88">
   <si>
     <t>date</t>
   </si>
@@ -255,9 +255,6 @@
     <t>LN</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>This analysis</t>
   </si>
   <si>
@@ -289,13 +286,25 @@
   </si>
   <si>
     <t>Mouse CD45-:    4</t>
+  </si>
+  <si>
+    <t>sample name</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>disease</t>
+  </si>
+  <si>
+    <t>BladderCancer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1024,13 +1033,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -1040,7 +1049,7 @@
     <col min="6" max="6" width="12.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="10.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
@@ -1048,7 +1057,7 @@
     <col min="15" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="20" customHeight="1">
+    <row r="1" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -1056,13 +1065,13 @@
         <v>66</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>4</v>
+        <v>84</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>0</v>
@@ -1091,8 +1100,11 @@
       <c r="N1" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -1135,8 +1147,11 @@
       <c r="N2" s="7">
         <v>1779</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -1179,8 +1194,11 @@
       <c r="N3" s="7">
         <v>1551</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
@@ -1223,8 +1241,11 @@
       <c r="N4" s="7">
         <v>1540</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1267,8 +1288,11 @@
       <c r="N5" s="7">
         <v>1781</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
@@ -1311,8 +1335,11 @@
       <c r="N6" s="7">
         <v>853</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1355,8 +1382,11 @@
       <c r="N7" s="7">
         <v>291</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
@@ -1399,8 +1429,11 @@
       <c r="N8" s="7">
         <v>187</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>12</v>
       </c>
@@ -1443,8 +1476,11 @@
       <c r="N9" s="7">
         <v>1297</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1487,8 +1523,11 @@
       <c r="N10" s="7">
         <v>2034</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>14</v>
       </c>
@@ -1531,8 +1570,11 @@
       <c r="N11" s="7">
         <v>792</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>15</v>
       </c>
@@ -1575,8 +1617,11 @@
       <c r="N12" s="7">
         <v>1989</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>16</v>
       </c>
@@ -1619,8 +1664,11 @@
       <c r="N13" s="7">
         <v>2074</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>17</v>
       </c>
@@ -1663,8 +1711,11 @@
       <c r="N14" s="7">
         <v>1826</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>18</v>
       </c>
@@ -1707,8 +1758,11 @@
       <c r="N15" s="7">
         <v>342</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -1751,8 +1805,11 @@
       <c r="N16" s="7">
         <v>2486</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>20</v>
       </c>
@@ -1795,8 +1852,11 @@
       <c r="N17" s="7">
         <v>1336</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -1839,8 +1899,11 @@
       <c r="N18" s="7">
         <v>1388</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>22</v>
       </c>
@@ -1883,8 +1946,11 @@
       <c r="N19" s="7">
         <v>968</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>23</v>
       </c>
@@ -1927,15 +1993,12 @@
       <c r="N20" s="7">
         <v>2030</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="C21" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L21" s="7">
-        <f>SUM(L2:L20)</f>
-        <v>52846</v>
-      </c>
+      <c r="O20" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -1953,28 +2016,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361037A4-8092-9141-9C7A-8BB3B8939C9D}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
+    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="10"/>
       <c r="B1" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" ht="18">
+    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -1986,7 +2049,7 @@
       </c>
       <c r="D2" s="8"/>
     </row>
-    <row r="3" spans="1:4" ht="18">
+    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
         <v>56</v>
       </c>
@@ -1998,7 +2061,7 @@
       </c>
       <c r="D3" s="9"/>
     </row>
-    <row r="4" spans="1:4" ht="18">
+    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
         <v>67</v>
       </c>
@@ -2010,7 +2073,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" ht="18">
+    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>1</v>
       </c>
@@ -2022,9 +2085,9 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" ht="18">
+    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B6" s="10">
         <v>52846</v>
@@ -2032,101 +2095,101 @@
       <c r="C6" s="10"/>
       <c r="D6" s="9"/>
     </row>
-    <row r="7" spans="1:4" ht="18">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
       <c r="B7" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="9"/>
     </row>
-    <row r="8" spans="1:4" ht="18">
+    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="11"/>
       <c r="B8" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D8" s="9"/>
     </row>
-    <row r="9" spans="1:4" ht="18">
+    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="11"/>
       <c r="B9" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" ht="18">
+    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="11"/>
       <c r="B10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D10" s="8"/>
     </row>
-    <row r="11" spans="1:4" ht="18">
+    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="8"/>
     </row>
-    <row r="12" spans="1:4" ht="18">
+    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
     </row>
-    <row r="13" spans="1:4" ht="18">
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
